--- a/biology/Médecine/Normoxie/Normoxie.xlsx
+++ b/biology/Médecine/Normoxie/Normoxie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On appelle normoxie l’état du corps pour lequel le dioxygène en concentration normale dans le sang permet une activité normale[1]. Dans la pression atmosphérique, la teneur en oxygène de l’air inhalé doit se situer dans la normale entre 19 et 21 % vol. et n'être en aucun cas inférieure à 18 % vol.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On appelle normoxie l’état du corps pour lequel le dioxygène en concentration normale dans le sang permet une activité normale. Dans la pression atmosphérique, la teneur en oxygène de l’air inhalé doit se situer dans la normale entre 19 et 21 % vol. et n'être en aucun cas inférieure à 18 % vol.
 En plongée sous-marine, avec l’augmentation de la pression, c’est la valeur de la pression partielle de l’oxygène (PpO2) qu’il faut respecter.
 </t>
         </is>
